--- a/pricing.xlsx
+++ b/pricing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -694,6 +694,119 @@
     </r>
   </si>
   <si>
+    <t>Stridesol WhatsApp AI Chatbot Setup - Standard (one funnel)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">• Lead capture page / intake form setup
+• Custom qualification questions to filter out non-serious leads
+• Conditional logic to route qualified vs unqualified leads
+• Automated welcome &amp; first-response message
+• Basic follow-up sequence (24–48 hours)
+• Google Sheet/CRM lead tracking setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Client Responsibilities:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+• Provide offer details and target customer profile
+• Approve screening questions and messaging
+• Pay software fees (if applicable)
+This package covers the creation of the qualification funnel and basic auto-reply system. Does not include calendar booking or extended follow-up sequences.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stridesol WhatsApp AI Chatbot Setup - Growth (one funnel)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">• Lead capture page / intake form setup
+• Custom qualification questions to filter out non-serious leads
+• Conditional logic to route qualified vs unqualified leads
+• Automated welcome &amp; first-response message
+• Basic follow-up sequence (24–48 hours)
+• Google Sheet/CRM lead tracking setup
+• Full follow-up messaging sequence (3–7 days)
+• Calendar integration (Google Calendar / Calendly / TidyCal)
+• Automatic appointment scheduling for qualified leads only
+• Appointment confirmation message
+• No-show reminder automation
+• Polite rejection message for unqualified leads
+• Lead dashboard with status indicators (Qualified / Not Qualified / Booked)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Client Responsibilities:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+• Provide brand tone or messaging direction
+• Confirm availability schedule for appointment booking
+• Pay software fees (if applicable)
+This package builds a full qualification + booking system that only sends you serious leads.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stridesol WhatsApp AI Chatbot Setup - Scale (one funnel)</t>
+  </si>
+  <si>
+    <t>Lead Qualification Funnel + Auto Nurture + Optimization – Scale Package
+Includes:
+• Everything in Growth Package, plus:
+• Full cold lead revival follow-up sequences (7–14 days)
+• Long-term nurture automation to warm up undecided leads
+• Performance tracking + funnel analytics dashboard
+• Weekly review and optimization of messaging, filters &amp; conversion points (for 3 months)
+• Monthly improvement report and strategy updates (for 3 months)
+Client Responsibilities:
+• Provide feedback on lead quality during review check-ins
+• Confirm any business updates that may affect messaging or qualification criteria
+This package provides a full lead filtering, follow-up, and scaling system with ongoing optimization.</t>
+  </si>
+  <si>
+    <t>Stridesol AI Chatbot Maintenance</t>
+  </si>
+  <si>
+    <t>• Weekly conversation review and quality check
+• Adjusting chatbot replies to maintain accuracy and tone
+• Updating follow-up sequences to improve lead conversion
+• Refining qualification questions and filtering logic
+• Monthly performance summary
+Client Responsibilities:
+• Notify us of changes in pricing, promotions, or offers
+• Provide access to relevant accounts as needed
+This fee covers ongoing tuning and conversational optimization.
+Does not include new chatbot builds, new funnels, or new integrations.</t>
+  </si>
+  <si>
     <t>Social Media Setup</t>
   </si>
   <si>
@@ -775,6 +888,117 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> 2 Days</t>
+    </r>
+  </si>
+  <si>
+    <t>Social Media Ads Setup (YouTube + Google)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">• Google Ads account setup or cleanup
+• Conversion tracking setup: Google Tag Manager + Analytics + Search Console
+• YouTube tracking events &amp; remarketing audiences
+• Campaign structure setup (Search / Performance Max / YouTube)
+• Keyword research + negative keyword list
+• Ad group targeting setup
+• Ad copywriting (headlines + descriptions)
+• Ad extensions setup (sitelinks, callouts, structured snippets)
+• Basic landing page conversion recommendations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Client Responsibilities:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>• Pay ad spend directly to Google
+• Provide or approve video assets (we can produce, billed separately)
+• Provide website/admin access for tracking setup</t>
+    </r>
+  </si>
+  <si>
+    <t>Social Media Ads Setup (Facebook + Instagram)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">• Meta Business Manager setup + permissions cleanup
+• Pixel + Conversion API installation and testing
+• Custom audiences + lookalike audiences creation
+• Campaign structure setup (Cold → Warm → Retargeting)
+• Ad copywriting (primary text + headline + CTA)
+• Creative guidance (hooks, formats, messaging direction)
+• Retargeting rules setup
+• Lead routing/CRM or Google Sheet setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Client Responsibilities:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+• Pay ad spend directly to Meta
+• Provide page access + brand assets
+• Provide or approve creatives (we can produce, billed separately)</t>
+    </r>
+  </si>
+  <si>
+    <t>Social Media Ads Setup (TikTok)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">• Ad account setup + pixel/conversion tracking
+• Audience and targeting configuration
+• Campaign structure setup
+• Ad messaging + CTA framework
+• Warm + retargeting audience setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Client Responsibilities:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>• Pay ad spend directly to platform
+• Provide or approve creatives (we can produce, billed separately)</t>
     </r>
   </si>
   <si>
@@ -1280,6 +1504,14 @@
   </si>
   <si>
     <t>1x additional revision for graphics after the standard 2 revisions</t>
+  </si>
+  <si>
+    <t>Teleprompter Script Pre-Loading Fee (1 script)</t>
+  </si>
+  <si>
+    <t>- Editing of script to make it teleprompter friendly
+- Pre-Loading Script into teleprompter software
+- 1x Script</t>
   </si>
   <si>
     <t>1-hr teleprompter use (Ala-Carte)</t>
@@ -1773,13 +2005,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3">
-        <v>800.0</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4">
+        <v>1200.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1787,13 +2019,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3">
-        <v>500.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4">
+        <v>1800.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1805,7 +2037,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4">
-        <v>750.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1815,13 +2047,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3">
-        <v>700.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4">
+        <v>350.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1829,13 +2061,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4">
-        <v>1050.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1843,13 +2075,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1874,10 +2106,10 @@
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1885,13 +2117,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1899,13 +2131,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4">
+        <v>750.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1913,11 +2145,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="4">
-        <v>150.0</v>
+      <c r="B23" s="3">
+        <v>700.0</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1931,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="4">
-        <v>250.0</v>
+        <v>1050.0</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -1941,11 +2173,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4">
-        <v>400.0</v>
+      <c r="B25" s="3">
+        <v>1000.0</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -1959,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="4">
-        <v>200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
@@ -1969,41 +2201,41 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3">
-        <v>2000.0</v>
+        <v>50.0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
+      <c r="B28" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2015,9 +2247,9 @@
         <v>62</v>
       </c>
       <c r="B30" s="4">
-        <v>1800.0</v>
-      </c>
-      <c r="C30" s="4" t="s">
+        <v>150.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2029,7 +2261,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="4">
-        <v>2500.0</v>
+        <v>250.0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -2043,9 +2275,9 @@
         <v>66</v>
       </c>
       <c r="B32" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="C32" s="4" t="s">
+        <v>400.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2057,160 +2289,224 @@
         <v>68</v>
       </c>
       <c r="B33" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1800.0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2500.0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4">
         <v>500.0</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="4">
-        <v>700.0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="4">
-        <v>250.0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="4">
-        <v>350.0</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4">
+        <v>700.0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4">
+        <v>350.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
@@ -8013,6 +8309,54 @@
       <c r="B1015" s="3"/>
       <c r="C1015" s="3"/>
       <c r="D1015" s="6"/>
+    </row>
+    <row r="1016" ht="15.75" customHeight="1">
+      <c r="A1016" s="3"/>
+      <c r="B1016" s="3"/>
+      <c r="C1016" s="3"/>
+      <c r="D1016" s="6"/>
+    </row>
+    <row r="1017" ht="15.75" customHeight="1">
+      <c r="A1017" s="3"/>
+      <c r="B1017" s="3"/>
+      <c r="C1017" s="3"/>
+      <c r="D1017" s="6"/>
+    </row>
+    <row r="1018" ht="15.75" customHeight="1">
+      <c r="A1018" s="3"/>
+      <c r="B1018" s="3"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="6"/>
+    </row>
+    <row r="1019" ht="15.75" customHeight="1">
+      <c r="A1019" s="3"/>
+      <c r="B1019" s="3"/>
+      <c r="C1019" s="3"/>
+      <c r="D1019" s="6"/>
+    </row>
+    <row r="1020" ht="15.75" customHeight="1">
+      <c r="A1020" s="3"/>
+      <c r="B1020" s="3"/>
+      <c r="C1020" s="3"/>
+      <c r="D1020" s="6"/>
+    </row>
+    <row r="1021" ht="15.75" customHeight="1">
+      <c r="A1021" s="3"/>
+      <c r="B1021" s="3"/>
+      <c r="C1021" s="3"/>
+      <c r="D1021" s="6"/>
+    </row>
+    <row r="1022" ht="15.75" customHeight="1">
+      <c r="A1022" s="3"/>
+      <c r="B1022" s="3"/>
+      <c r="C1022" s="3"/>
+      <c r="D1022" s="6"/>
+    </row>
+    <row r="1023" ht="15.75" customHeight="1">
+      <c r="A1023" s="3"/>
+      <c r="B1023" s="3"/>
+      <c r="C1023" s="3"/>
+      <c r="D1023" s="6"/>
     </row>
   </sheetData>
   <printOptions/>
